--- a/docs/TODO.xlsx
+++ b/docs/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,66 @@
   </si>
   <si>
     <t>분류와 용도를 별도의 코드 테이블에서 값을 가져오도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github의 wiki를 개설해서 신규 지식을 정리하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github의 issue를 이용해서 trouble shooting 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일용의 ui 구현하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionbar 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap을 이용하여 반응형 웹으로 구현하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어플로 제공하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 뷰를 앨범형으로 제공하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 화면 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고는 input[type=text]가 아니라 textarea로 만들자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols=50, rows=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경 설정 문서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 관리 화면 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 테이블의 순서 수정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply 버튼 추가하여 연속적인 입력이 가능하도록 할 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,8 +171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
     <tableColumn id="1" name="순번"/>
     <tableColumn id="2" name="내용"/>
@@ -420,15 +480,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,6 +512,122 @@
       </c>
       <c r="B2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
